--- a/Handin/Ghant Chart.xlsx
+++ b/Handin/Ghant Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magnu\Documents\Projects\Bachelorprojekt\Handin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FAC37D4-93B9-45DD-BDFB-5E72FE7D51DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671D1E4F-6ACF-4884-A87A-60A8FFD03F1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{2B740F32-E2C1-4D5E-8776-9C78369FD31C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Week 1</t>
   </si>
@@ -115,15 +115,6 @@
   </si>
   <si>
     <t>Research</t>
-  </si>
-  <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>End Date</t>
-  </si>
-  <si>
-    <t>Duration</t>
   </si>
   <si>
     <t>Create python game engine</t>
@@ -202,14 +193,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -528,195 +518,192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294A57F6-D5FB-4275-B913-C631F7FBCBEF}">
-  <dimension ref="A1:AY18"/>
+  <dimension ref="A1:AV18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.08984375" customWidth="1"/>
     <col min="2" max="2" width="27.90625" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" customWidth="1"/>
-    <col min="4" max="5" width="8.6328125" customWidth="1"/>
-    <col min="6" max="6" width="4.6328125" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" customWidth="1"/>
-    <col min="8" max="8" width="4.6328125" customWidth="1"/>
-    <col min="9" max="9" width="4.90625" customWidth="1"/>
-    <col min="11" max="11" width="4.08984375" customWidth="1"/>
-    <col min="12" max="12" width="4.7265625" customWidth="1"/>
-    <col min="14" max="15" width="4.36328125" customWidth="1"/>
-    <col min="17" max="17" width="3.90625" customWidth="1"/>
-    <col min="18" max="18" width="3.81640625" customWidth="1"/>
-    <col min="20" max="20" width="4.26953125" customWidth="1"/>
-    <col min="21" max="21" width="4.6328125" customWidth="1"/>
-    <col min="23" max="23" width="4.1796875" customWidth="1"/>
-    <col min="24" max="24" width="4" customWidth="1"/>
+    <col min="3" max="3" width="4.6328125" customWidth="1"/>
+    <col min="4" max="4" width="4.54296875" customWidth="1"/>
+    <col min="5" max="5" width="4.6328125" customWidth="1"/>
+    <col min="6" max="6" width="4.90625" customWidth="1"/>
+    <col min="7" max="7" width="4.26953125" customWidth="1"/>
+    <col min="8" max="8" width="4.08984375" customWidth="1"/>
+    <col min="9" max="9" width="4.7265625" customWidth="1"/>
+    <col min="10" max="10" width="4.26953125" customWidth="1"/>
+    <col min="11" max="12" width="4.36328125" customWidth="1"/>
+    <col min="13" max="14" width="3.90625" customWidth="1"/>
+    <col min="15" max="16" width="3.81640625" customWidth="1"/>
+    <col min="17" max="17" width="4.26953125" customWidth="1"/>
+    <col min="18" max="18" width="4.6328125" customWidth="1"/>
+    <col min="19" max="19" width="4.54296875" customWidth="1"/>
+    <col min="20" max="20" width="4.1796875" customWidth="1"/>
+    <col min="21" max="21" width="4" customWidth="1"/>
+    <col min="22" max="22" width="4.453125" customWidth="1"/>
+    <col min="23" max="23" width="4" customWidth="1"/>
+    <col min="24" max="24" width="4.54296875" customWidth="1"/>
+    <col min="25" max="25" width="4.26953125" customWidth="1"/>
     <col min="26" max="26" width="4" customWidth="1"/>
-    <col min="27" max="27" width="4.54296875" customWidth="1"/>
-    <col min="29" max="29" width="4" customWidth="1"/>
-    <col min="30" max="30" width="4.26953125" customWidth="1"/>
-    <col min="32" max="32" width="4.36328125" customWidth="1"/>
-    <col min="33" max="33" width="4" customWidth="1"/>
-    <col min="35" max="35" width="4.26953125" customWidth="1"/>
-    <col min="36" max="36" width="4.08984375" customWidth="1"/>
-    <col min="38" max="38" width="4.08984375" customWidth="1"/>
-    <col min="39" max="39" width="4.54296875" customWidth="1"/>
-    <col min="41" max="41" width="4" customWidth="1"/>
+    <col min="27" max="27" width="4.26953125" customWidth="1"/>
+    <col min="28" max="28" width="4.453125" customWidth="1"/>
+    <col min="29" max="29" width="4.36328125" customWidth="1"/>
+    <col min="30" max="30" width="4" customWidth="1"/>
+    <col min="31" max="31" width="4.54296875" customWidth="1"/>
+    <col min="32" max="32" width="4.26953125" customWidth="1"/>
+    <col min="33" max="33" width="4.08984375" customWidth="1"/>
+    <col min="34" max="34" width="4.26953125" customWidth="1"/>
+    <col min="35" max="35" width="4.08984375" customWidth="1"/>
+    <col min="36" max="36" width="4.54296875" customWidth="1"/>
+    <col min="37" max="37" width="4.36328125" customWidth="1"/>
+    <col min="38" max="38" width="4" customWidth="1"/>
+    <col min="39" max="39" width="4.1796875" customWidth="1"/>
+    <col min="40" max="40" width="5" customWidth="1"/>
+    <col min="41" max="41" width="4.36328125" customWidth="1"/>
     <col min="42" max="42" width="4.1796875" customWidth="1"/>
+    <col min="43" max="43" width="4.54296875" customWidth="1"/>
     <col min="44" max="44" width="4.36328125" customWidth="1"/>
-    <col min="45" max="45" width="4.1796875" customWidth="1"/>
-    <col min="47" max="47" width="4.36328125" customWidth="1"/>
-    <col min="48" max="48" width="4.26953125" customWidth="1"/>
-    <col min="49" max="49" width="8.7265625" customWidth="1"/>
-    <col min="50" max="50" width="4.6328125" customWidth="1"/>
+    <col min="45" max="45" width="4.26953125" customWidth="1"/>
+    <col min="46" max="46" width="4.54296875" customWidth="1"/>
+    <col min="47" max="47" width="4.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="10"/>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
-      <c r="AY1" s="10"/>
-    </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A2" s="10"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8" t="s">
+    <row r="1" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="9"/>
+      <c r="AR1" s="9"/>
+      <c r="AS1" s="9"/>
+      <c r="AT1" s="9"/>
+      <c r="AU1" s="9"/>
+      <c r="AV1" s="9"/>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A2" s="9"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8" t="s">
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8" t="s">
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8" t="s">
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8" t="s">
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8" t="s">
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8" t="s">
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8" t="s">
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8" t="s">
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="8" t="s">
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8" t="s">
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AR2" s="8"/>
-      <c r="AS2" s="8"/>
-      <c r="AT2" s="8" t="s">
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="AU2" s="8"/>
-      <c r="AV2" s="8"/>
-      <c r="AW2" s="8" t="s">
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="AX2" s="8"/>
-      <c r="AY2" s="10"/>
-    </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
+      <c r="AU2" s="7"/>
+      <c r="AV2" s="9"/>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
@@ -765,192 +752,180 @@
       <c r="AS3" s="2"/>
       <c r="AT3" s="2"/>
       <c r="AU3" s="2"/>
-      <c r="AV3" s="2"/>
-      <c r="AW3" s="2"/>
-      <c r="AX3" s="2"/>
-      <c r="AY3" s="10"/>
-    </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
-      <c r="B4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="AV3" s="9"/>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A4" s="9"/>
+      <c r="B4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="10"/>
-      <c r="AK4" s="10"/>
-      <c r="AL4" s="10"/>
-      <c r="AM4" s="10"/>
-      <c r="AN4" s="10"/>
-      <c r="AO4" s="10"/>
-      <c r="AP4" s="10"/>
-      <c r="AQ4" s="10"/>
-      <c r="AR4" s="10"/>
-      <c r="AS4" s="10"/>
-      <c r="AT4" s="10"/>
-      <c r="AU4" s="10"/>
-      <c r="AV4" s="10"/>
-      <c r="AW4" s="10"/>
-      <c r="AX4" s="10"/>
-      <c r="AY4" s="10"/>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A5" s="10"/>
-      <c r="B5" s="9" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="9"/>
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="9"/>
+      <c r="AN4" s="9"/>
+      <c r="AO4" s="9"/>
+      <c r="AP4" s="9"/>
+      <c r="AQ4" s="9"/>
+      <c r="AR4" s="9"/>
+      <c r="AS4" s="9"/>
+      <c r="AT4" s="9"/>
+      <c r="AU4" s="9"/>
+      <c r="AV4" s="9"/>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A5" s="9"/>
+      <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10"/>
-      <c r="AL5" s="10"/>
-      <c r="AM5" s="10"/>
-      <c r="AN5" s="10"/>
-      <c r="AO5" s="10"/>
-      <c r="AP5" s="10"/>
-      <c r="AQ5" s="10"/>
-      <c r="AR5" s="10"/>
-      <c r="AS5" s="10"/>
-      <c r="AT5" s="10"/>
-      <c r="AU5" s="10"/>
-      <c r="AV5" s="10"/>
-      <c r="AW5" s="10"/>
-      <c r="AX5" s="10"/>
-      <c r="AY5" s="10"/>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
-      <c r="B6" s="9" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="9"/>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A6" s="9"/>
+      <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="10"/>
-      <c r="AM6" s="10"/>
-      <c r="AN6" s="10"/>
-      <c r="AO6" s="10"/>
-      <c r="AP6" s="10"/>
-      <c r="AQ6" s="10"/>
-      <c r="AR6" s="10"/>
-      <c r="AS6" s="10"/>
-      <c r="AT6" s="10"/>
-      <c r="AU6" s="10"/>
-      <c r="AV6" s="10"/>
-      <c r="AW6" s="10"/>
-      <c r="AX6" s="10"/>
-      <c r="AY6" s="10"/>
-    </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
-      <c r="B7" s="9" t="s">
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="9"/>
+      <c r="AP6" s="9"/>
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="9"/>
+      <c r="AT6" s="9"/>
+      <c r="AU6" s="9"/>
+      <c r="AV6" s="9"/>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A7" s="9"/>
+      <c r="B7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -973,35 +948,32 @@
       <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
       <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
-      <c r="AM7" s="10"/>
-      <c r="AN7" s="10"/>
-      <c r="AO7" s="10"/>
-      <c r="AP7" s="10"/>
-      <c r="AQ7" s="10"/>
-      <c r="AR7" s="10"/>
-      <c r="AS7" s="10"/>
-      <c r="AT7" s="10"/>
-      <c r="AU7" s="10"/>
-      <c r="AV7" s="10"/>
-      <c r="AW7" s="10"/>
-      <c r="AX7" s="10"/>
-      <c r="AY7" s="10"/>
-    </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="9"/>
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="9"/>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="9"/>
+      <c r="AT7" s="9"/>
+      <c r="AU7" s="9"/>
+      <c r="AV7" s="9"/>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A8" s="9"/>
       <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1040,78 +1012,72 @@
       <c r="AS8" s="2"/>
       <c r="AT8" s="2"/>
       <c r="AU8" s="2"/>
-      <c r="AV8" s="2"/>
-      <c r="AW8" s="2"/>
-      <c r="AX8" s="2"/>
-      <c r="AY8" s="10"/>
-    </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
-      <c r="B9" s="9" t="s">
+      <c r="AV8" s="9"/>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A9" s="9"/>
+      <c r="B9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="10"/>
-      <c r="AL9" s="10"/>
-      <c r="AM9" s="10"/>
-      <c r="AN9" s="10"/>
-      <c r="AO9" s="10"/>
-      <c r="AP9" s="10"/>
-      <c r="AQ9" s="10"/>
-      <c r="AR9" s="10"/>
-      <c r="AS9" s="10"/>
-      <c r="AT9" s="10"/>
-      <c r="AU9" s="10"/>
-      <c r="AV9" s="10"/>
-      <c r="AW9" s="10"/>
-      <c r="AX9" s="10"/>
-      <c r="AY9" s="10"/>
-    </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
-      <c r="B10" s="9" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="9"/>
+      <c r="AP9" s="9"/>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="9"/>
+      <c r="AT9" s="9"/>
+      <c r="AU9" s="9"/>
+      <c r="AV9" s="9"/>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A10" s="9"/>
+      <c r="B10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -1138,25 +1104,22 @@
       <c r="AG10" s="5"/>
       <c r="AH10" s="5"/>
       <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="5"/>
-      <c r="AM10" s="10"/>
-      <c r="AN10" s="10"/>
-      <c r="AO10" s="10"/>
-      <c r="AP10" s="10"/>
-      <c r="AQ10" s="10"/>
-      <c r="AR10" s="10"/>
-      <c r="AS10" s="10"/>
-      <c r="AT10" s="10"/>
-      <c r="AU10" s="10"/>
-      <c r="AV10" s="10"/>
-      <c r="AW10" s="10"/>
-      <c r="AX10" s="10"/>
-      <c r="AY10" s="10"/>
-    </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A11" s="10"/>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="9"/>
+      <c r="AM10" s="9"/>
+      <c r="AN10" s="9"/>
+      <c r="AO10" s="9"/>
+      <c r="AP10" s="9"/>
+      <c r="AQ10" s="9"/>
+      <c r="AR10" s="9"/>
+      <c r="AS10" s="9"/>
+      <c r="AT10" s="9"/>
+      <c r="AU10" s="9"/>
+      <c r="AV10" s="9"/>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A11" s="9"/>
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1205,82 +1168,76 @@
       <c r="AS11" s="2"/>
       <c r="AT11" s="2"/>
       <c r="AU11" s="2"/>
-      <c r="AV11" s="2"/>
-      <c r="AW11" s="2"/>
-      <c r="AX11" s="2"/>
-      <c r="AY11" s="10"/>
-    </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10" t="s">
+      <c r="AV11" s="9"/>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="10"/>
-      <c r="AJ12" s="10"/>
-      <c r="AK12" s="10"/>
-      <c r="AL12" s="10"/>
-      <c r="AM12" s="10"/>
-      <c r="AN12" s="10"/>
-      <c r="AO12" s="10"/>
-      <c r="AP12" s="10"/>
-      <c r="AQ12" s="10"/>
-      <c r="AR12" s="10"/>
-      <c r="AS12" s="10"/>
-      <c r="AT12" s="10"/>
-      <c r="AU12" s="10"/>
-      <c r="AV12" s="10"/>
-      <c r="AW12" s="10"/>
-      <c r="AX12" s="10"/>
-      <c r="AY12" s="10"/>
-    </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="9"/>
+      <c r="AK12" s="9"/>
+      <c r="AL12" s="9"/>
+      <c r="AM12" s="9"/>
+      <c r="AN12" s="9"/>
+      <c r="AO12" s="9"/>
+      <c r="AP12" s="9"/>
+      <c r="AQ12" s="9"/>
+      <c r="AR12" s="9"/>
+      <c r="AS12" s="9"/>
+      <c r="AT12" s="9"/>
+      <c r="AU12" s="9"/>
+      <c r="AV12" s="9"/>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
@@ -1309,19 +1266,16 @@
       <c r="AM13" s="5"/>
       <c r="AN13" s="5"/>
       <c r="AO13" s="5"/>
-      <c r="AP13" s="5"/>
-      <c r="AQ13" s="5"/>
-      <c r="AR13" s="5"/>
-      <c r="AS13" s="10"/>
-      <c r="AT13" s="10"/>
-      <c r="AU13" s="10"/>
-      <c r="AV13" s="10"/>
-      <c r="AW13" s="10"/>
-      <c r="AX13" s="10"/>
-      <c r="AY13" s="10"/>
-    </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
+      <c r="AP13" s="9"/>
+      <c r="AQ13" s="9"/>
+      <c r="AR13" s="9"/>
+      <c r="AS13" s="9"/>
+      <c r="AT13" s="9"/>
+      <c r="AU13" s="9"/>
+      <c r="AV13" s="9"/>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A14" s="9"/>
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1370,19 +1324,16 @@
       <c r="AS14" s="2"/>
       <c r="AT14" s="2"/>
       <c r="AU14" s="2"/>
-      <c r="AV14" s="2"/>
-      <c r="AW14" s="2"/>
-      <c r="AX14" s="2"/>
-      <c r="AY14" s="10"/>
-    </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A15" s="10"/>
-      <c r="B15" s="7" t="s">
+      <c r="AV14" s="9"/>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A15" s="9"/>
+      <c r="B15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -1410,46 +1361,43 @@
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
-      <c r="AG15" s="5"/>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="10"/>
-      <c r="AK15" s="10"/>
-      <c r="AL15" s="10"/>
-      <c r="AM15" s="10"/>
-      <c r="AN15" s="10"/>
-      <c r="AO15" s="10"/>
-      <c r="AP15" s="10"/>
-      <c r="AQ15" s="10"/>
-      <c r="AR15" s="10"/>
-      <c r="AS15" s="10"/>
-      <c r="AT15" s="10"/>
-      <c r="AU15" s="10"/>
-      <c r="AV15" s="10"/>
-      <c r="AW15" s="10"/>
-      <c r="AX15" s="10"/>
-      <c r="AY15" s="10"/>
-    </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10" t="s">
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="9"/>
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="9"/>
+      <c r="AP15" s="9"/>
+      <c r="AQ15" s="9"/>
+      <c r="AR15" s="9"/>
+      <c r="AS15" s="9"/>
+      <c r="AT15" s="9"/>
+      <c r="AU15" s="9"/>
+      <c r="AV15" s="9"/>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
@@ -1480,116 +1428,107 @@
       <c r="AS16" s="5"/>
       <c r="AT16" s="5"/>
       <c r="AU16" s="5"/>
-      <c r="AV16" s="5"/>
-      <c r="AW16" s="5"/>
-      <c r="AX16" s="5"/>
-      <c r="AY16" s="10"/>
-    </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="10"/>
-      <c r="AG17" s="10"/>
-      <c r="AH17" s="10"/>
-      <c r="AI17" s="10"/>
-      <c r="AJ17" s="10"/>
-      <c r="AK17" s="10"/>
-      <c r="AL17" s="10"/>
-      <c r="AM17" s="10"/>
-      <c r="AN17" s="10"/>
-      <c r="AO17" s="10"/>
-      <c r="AP17" s="10"/>
-      <c r="AQ17" s="10"/>
-      <c r="AR17" s="10"/>
-      <c r="AS17" s="10"/>
-      <c r="AT17" s="10"/>
-      <c r="AU17" s="10"/>
-      <c r="AV17" s="10"/>
-      <c r="AW17" s="10"/>
-      <c r="AX17" s="10"/>
-      <c r="AY17" s="10"/>
-    </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="10"/>
-      <c r="AH18" s="10"/>
-      <c r="AI18" s="10"/>
-      <c r="AJ18" s="10"/>
-      <c r="AK18" s="10"/>
-      <c r="AL18" s="10"/>
-      <c r="AM18" s="10"/>
-      <c r="AN18" s="10"/>
-      <c r="AO18" s="10"/>
-      <c r="AP18" s="10"/>
-      <c r="AQ18" s="10"/>
-      <c r="AR18" s="10"/>
-      <c r="AS18" s="10"/>
-      <c r="AT18" s="10"/>
-      <c r="AU18" s="10"/>
-      <c r="AV18" s="10"/>
-      <c r="AW18" s="10"/>
-      <c r="AX18" s="10"/>
-      <c r="AY18" s="10"/>
+      <c r="AV16" s="9"/>
+    </row>
+    <row r="17" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="9"/>
+      <c r="AH17" s="9"/>
+      <c r="AI17" s="9"/>
+      <c r="AJ17" s="9"/>
+      <c r="AK17" s="9"/>
+      <c r="AL17" s="9"/>
+      <c r="AM17" s="9"/>
+      <c r="AN17" s="9"/>
+      <c r="AO17" s="9"/>
+      <c r="AP17" s="9"/>
+      <c r="AQ17" s="9"/>
+      <c r="AR17" s="9"/>
+      <c r="AS17" s="9"/>
+      <c r="AT17" s="9"/>
+      <c r="AU17" s="9"/>
+      <c r="AV17" s="9"/>
+    </row>
+    <row r="18" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="9"/>
+      <c r="AK18" s="9"/>
+      <c r="AL18" s="9"/>
+      <c r="AM18" s="9"/>
+      <c r="AN18" s="9"/>
+      <c r="AO18" s="9"/>
+      <c r="AP18" s="9"/>
+      <c r="AQ18" s="9"/>
+      <c r="AR18" s="9"/>
+      <c r="AS18" s="9"/>
+      <c r="AT18" s="9"/>
+      <c r="AU18" s="9"/>
+      <c r="AV18" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
